--- a/Notes and More/Experiments.xlsx
+++ b/Notes and More/Experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Latitude Max</t>
   </si>
@@ -65,39 +65,15 @@
     <t>distance / between</t>
   </si>
   <si>
-    <t>Most Bottom of DLSU</t>
-  </si>
-  <si>
-    <t>14.563377, 120.993639</t>
-  </si>
-  <si>
     <t>Minimum Latitude</t>
   </si>
   <si>
-    <t>Most Left of DLSU</t>
-  </si>
-  <si>
-    <t>14.564973, 120.991518</t>
-  </si>
-  <si>
     <t>Minimum Longitude</t>
   </si>
   <si>
-    <t>Most Top of DLSU</t>
-  </si>
-  <si>
-    <t>14.567238, 120.992101</t>
-  </si>
-  <si>
     <t>Max Lat</t>
   </si>
   <si>
-    <t>Most Right of DLSU</t>
-  </si>
-  <si>
-    <t>14.563787, 120.994480</t>
-  </si>
-  <si>
     <t>Max Long</t>
   </si>
   <si>
@@ -105,19 +81,57 @@
   </si>
   <si>
     <t>Middle Long</t>
+  </si>
+  <si>
+    <r>
+      <t>14.565075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>120.993245</t>
+    </r>
+  </si>
+  <si>
+    <t>14.565025, 120.993217</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -467,26 +484,26 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>14.567239000000001</v>
-      </c>
-      <c r="B3">
-        <v>14.563407</v>
+      <c r="A3" s="1">
+        <v>14.567237</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14.563433</v>
       </c>
       <c r="C3">
         <f>A3-B3</f>
-        <v>3.8320000000009458E-3</v>
+        <v>3.8040000000005847E-3</v>
       </c>
       <c r="D3">
-        <v>14.565200000000001</v>
+        <v>14.565025</v>
       </c>
       <c r="E3">
         <f>D3-B3</f>
-        <v>1.7930000000010438E-3</v>
+        <v>1.5920000000004819E-3</v>
       </c>
       <c r="F3">
         <f>E3/C3</f>
-        <v>0.46790187891456192</v>
+        <v>0.41850683491068275</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -504,48 +521,50 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>120.994452</v>
-      </c>
-      <c r="B5">
-        <v>120.99137500000001</v>
+      <c r="A5" s="1">
+        <v>120.994435</v>
+      </c>
+      <c r="B5" s="1">
+        <v>120.991502</v>
       </c>
       <c r="C5">
         <f>A5-B5</f>
-        <v>3.0769999999904485E-3</v>
+        <v>2.9329999999987422E-3</v>
       </c>
       <c r="D5">
-        <v>120.99363099999999</v>
+        <v>120.993217</v>
       </c>
       <c r="E5">
         <f>D5-B5</f>
-        <v>2.2559999999884894E-3</v>
+        <v>1.7150000000043519E-3</v>
       </c>
       <c r="F5">
         <f>E5/C5</f>
-        <v>0.73318167045677363</v>
+        <v>0.58472553699457464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="C11">
         <v>14.563376999999999</v>
       </c>
@@ -555,20 +574,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
       <c r="C13">
         <v>120.991518</v>
       </c>
@@ -578,35 +591,31 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
       <c r="C15">
         <v>14.567238</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C17">
         <v>120.99448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>14.5663085</v>
+      </c>
+      <c r="C22">
+        <v>120.99222709999999</v>
       </c>
     </row>
   </sheetData>

--- a/Notes and More/Experiments.xlsx
+++ b/Notes and More/Experiments.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Coordinates Current" sheetId="2" r:id="rId1"/>
+    <sheet name="Coordinates Archives" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Latitude Max</t>
   </si>
@@ -107,6 +108,45 @@
   </si>
   <si>
     <t>14.565025, 120.993217</t>
+  </si>
+  <si>
+    <t>Lowest Point</t>
+  </si>
+  <si>
+    <t>14.563444, 120.993681</t>
+  </si>
+  <si>
+    <t>Rightmost Point</t>
+  </si>
+  <si>
+    <t>14.563971, 120.994539</t>
+  </si>
+  <si>
+    <t>Leftmost Point</t>
+  </si>
+  <si>
+    <t>14.565023, 120.991844</t>
+  </si>
+  <si>
+    <t>Highest Point</t>
+  </si>
+  <si>
+    <t>14.567222, 120.992038</t>
+  </si>
+  <si>
+    <t>Min Lat</t>
+  </si>
+  <si>
+    <t>Min Long</t>
+  </si>
+  <si>
+    <t>Example Point 1</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>Percentage Distance</t>
   </si>
 </sst>
 </file>
@@ -439,9 +479,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>14.563444</v>
+      </c>
+      <c r="D2">
+        <v>14.567221999999999</v>
+      </c>
+      <c r="E2">
+        <f>D2-C2</f>
+        <v>3.7779999999987268E-3</v>
+      </c>
+      <c r="G2">
+        <f>B10-C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>G2/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>120.991844</v>
+      </c>
+      <c r="D4">
+        <v>120.994539</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E3:E4" si="0">D4-C4</f>
+        <v>2.6950000000027785E-3</v>
+      </c>
+      <c r="G4">
+        <f>C10-C4</f>
+        <v>1.8369999999947595E-3</v>
+      </c>
+      <c r="H4">
+        <f>G4/E4</f>
+        <v>0.68163265305857723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>14.563444</v>
+      </c>
+      <c r="C10">
+        <v>120.993681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
